--- a/NBA.xlsx
+++ b/NBA.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>Name</t>
   </si>
@@ -34,6 +34,9 @@
     <t>Pointsbet</t>
   </si>
   <si>
+    <t>AVG</t>
+  </si>
+  <si>
     <t>Pinnacle</t>
   </si>
   <si>
@@ -43,10 +46,19 @@
     <t>Kelly</t>
   </si>
   <si>
+    <t>Spread</t>
+  </si>
+  <si>
     <t>Phoenix Suns Phx Pho</t>
   </si>
   <si>
     <t>Memphis Grizzlies Mem</t>
+  </si>
+  <si>
+    <t>Miami Heat Mia</t>
+  </si>
+  <si>
+    <t>New York Knicks Ny</t>
   </si>
   <si>
     <t>Chicago Bulls Chi</t>
@@ -473,7 +485,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -482,7 +494,7 @@
     <col min="1" max="1" width="26.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:11">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -510,469 +522,641 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="2">
-        <v>-1000</v>
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>-1800</v>
       </c>
       <c r="C2">
-        <v>-1050</v>
+        <v>-1900</v>
       </c>
       <c r="D2">
-        <v>-1430</v>
+        <v>-2500</v>
       </c>
       <c r="E2">
-        <v>-1200</v>
+        <v>-2500</v>
       </c>
       <c r="F2" s="2">
-        <v>-1000</v>
+        <v>-1664</v>
       </c>
       <c r="G2">
-        <v>-820</v>
+        <v>-912</v>
       </c>
       <c r="H2">
-        <v>-1.96</v>
+        <v>-943</v>
       </c>
       <c r="I2">
-        <v>-19.57</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>-4.15</v>
+      </c>
+      <c r="J2">
+        <v>-69.13</v>
+      </c>
+      <c r="K2">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B3">
+        <v>850</v>
+      </c>
+      <c r="C3" s="2">
+        <v>900</v>
+      </c>
+      <c r="D3">
+        <v>850</v>
+      </c>
+      <c r="E3" s="2">
+        <v>900</v>
+      </c>
+      <c r="F3" s="2">
+        <v>900</v>
+      </c>
+      <c r="G3">
+        <v>912</v>
+      </c>
+      <c r="H3">
+        <v>943</v>
+      </c>
+      <c r="I3">
+        <v>-4.12</v>
+      </c>
+      <c r="J3">
+        <v>-0.46</v>
+      </c>
+      <c r="K3">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="2">
+        <v>175</v>
+      </c>
+      <c r="C4">
+        <v>170</v>
+      </c>
+      <c r="D4" s="2">
+        <v>175</v>
+      </c>
+      <c r="E4">
+        <v>168</v>
+      </c>
+      <c r="F4">
+        <v>165</v>
+      </c>
+      <c r="G4">
+        <v>181</v>
+      </c>
+      <c r="H4">
+        <v>177</v>
+      </c>
+      <c r="I4">
+        <v>-0.72</v>
+      </c>
+      <c r="J4">
+        <v>-0.41</v>
+      </c>
+      <c r="K4">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>-210</v>
+      </c>
+      <c r="C5">
+        <v>-205</v>
+      </c>
+      <c r="D5">
+        <v>-210</v>
+      </c>
+      <c r="E5" s="2">
+        <v>-200</v>
+      </c>
+      <c r="F5" s="2">
+        <v>-200</v>
+      </c>
+      <c r="G5">
+        <v>-181</v>
+      </c>
+      <c r="H5">
+        <v>-177</v>
+      </c>
+      <c r="I5">
+        <v>-4.15</v>
+      </c>
+      <c r="J5">
+        <v>-8.300000000000001</v>
+      </c>
+      <c r="K5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2">
+        <v>185</v>
+      </c>
+      <c r="C6">
+        <v>180</v>
+      </c>
+      <c r="D6">
+        <v>175</v>
+      </c>
+      <c r="E6">
+        <v>180</v>
+      </c>
+      <c r="F6" s="2">
+        <v>185</v>
+      </c>
+      <c r="G6">
+        <v>193</v>
+      </c>
+      <c r="H6">
+        <v>197</v>
+      </c>
+      <c r="I6">
+        <v>-4.04</v>
+      </c>
+      <c r="J6">
+        <v>-2.18</v>
+      </c>
+      <c r="K6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>-225</v>
+      </c>
+      <c r="C7">
+        <v>-218</v>
+      </c>
+      <c r="D7" s="2">
+        <v>-215</v>
+      </c>
+      <c r="E7" s="2">
+        <v>-215</v>
+      </c>
+      <c r="F7">
+        <v>-225</v>
+      </c>
+      <c r="G7">
+        <v>-193</v>
+      </c>
+      <c r="H7">
+        <v>-197</v>
+      </c>
+      <c r="I7">
+        <v>-2.82</v>
+      </c>
+      <c r="J7">
+        <v>-6.06</v>
+      </c>
+      <c r="K7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
         <v>600</v>
       </c>
-      <c r="C3">
+      <c r="C8">
         <v>600</v>
       </c>
-      <c r="D3" s="2">
-        <v>650</v>
-      </c>
-      <c r="E3">
-        <v>630</v>
-      </c>
-      <c r="F3">
-        <v>600</v>
-      </c>
-      <c r="G3">
-        <v>637</v>
-      </c>
-      <c r="H3">
-        <v>1.76</v>
-      </c>
-      <c r="I3">
-        <v>0.27</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2">
+      <c r="D8">
+        <v>575</v>
+      </c>
+      <c r="E8" s="2">
+        <v>610</v>
+      </c>
+      <c r="F8">
+        <v>550</v>
+      </c>
+      <c r="G8">
+        <v>620</v>
+      </c>
+      <c r="H8">
+        <v>578</v>
+      </c>
+      <c r="I8">
+        <v>4.72</v>
+      </c>
+      <c r="J8">
+        <v>0.77</v>
+      </c>
+      <c r="K8">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>-900</v>
+      </c>
+      <c r="C9">
+        <v>-900</v>
+      </c>
+      <c r="D9">
+        <v>-835</v>
+      </c>
+      <c r="E9">
+        <v>-900</v>
+      </c>
+      <c r="F9" s="2">
+        <v>-800</v>
+      </c>
+      <c r="G9">
+        <v>-620</v>
+      </c>
+      <c r="H9">
+        <v>-578</v>
+      </c>
+      <c r="I9">
+        <v>-4.09</v>
+      </c>
+      <c r="J9">
+        <v>-32.74</v>
+      </c>
+      <c r="K9">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="2">
+        <v>-140</v>
+      </c>
+      <c r="C10">
+        <v>-148</v>
+      </c>
+      <c r="D10">
+        <v>-148</v>
+      </c>
+      <c r="E10">
+        <v>-142</v>
+      </c>
+      <c r="F10">
+        <v>-145</v>
+      </c>
+      <c r="G10">
+        <v>-131</v>
+      </c>
+      <c r="H10">
+        <v>-130</v>
+      </c>
+      <c r="I10">
+        <v>-3.11</v>
+      </c>
+      <c r="J10">
+        <v>-4.35</v>
+      </c>
+      <c r="K10">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11">
+        <v>118</v>
+      </c>
+      <c r="C11">
+        <v>124</v>
+      </c>
+      <c r="D11" s="2">
+        <v>125</v>
+      </c>
+      <c r="E11">
+        <v>120</v>
+      </c>
+      <c r="F11">
+        <v>120</v>
+      </c>
+      <c r="G11">
+        <v>131</v>
+      </c>
+      <c r="H11">
+        <v>130</v>
+      </c>
+      <c r="I11">
+        <v>-2.17</v>
+      </c>
+      <c r="J11">
+        <v>-1.74</v>
+      </c>
+      <c r="K11">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2">
+        <v>152</v>
+      </c>
+      <c r="C12">
+        <v>150</v>
+      </c>
+      <c r="D12">
+        <v>148</v>
+      </c>
+      <c r="E12" s="2">
+        <v>152</v>
+      </c>
+      <c r="F12">
+        <v>150</v>
+      </c>
+      <c r="G12">
+        <v>161</v>
+      </c>
+      <c r="H12">
+        <v>161</v>
+      </c>
+      <c r="I12">
+        <v>-3.45</v>
+      </c>
+      <c r="J12">
+        <v>-2.27</v>
+      </c>
+      <c r="K12">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>-180</v>
+      </c>
+      <c r="C13">
+        <v>-180</v>
+      </c>
+      <c r="D13" s="2">
+        <v>-177</v>
+      </c>
+      <c r="E13">
+        <v>-180</v>
+      </c>
+      <c r="F13">
+        <v>-180</v>
+      </c>
+      <c r="G13">
+        <v>-161</v>
+      </c>
+      <c r="H13">
+        <v>-161</v>
+      </c>
+      <c r="I13">
+        <v>-3.46</v>
+      </c>
+      <c r="J13">
+        <v>-6.13</v>
+      </c>
+      <c r="K13">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="2">
+        <v>320</v>
+      </c>
+      <c r="C14">
+        <v>310</v>
+      </c>
+      <c r="D14">
+        <v>310</v>
+      </c>
+      <c r="E14">
+        <v>295</v>
+      </c>
+      <c r="F14">
+        <v>300</v>
+      </c>
+      <c r="G14">
+        <v>322</v>
+      </c>
+      <c r="H14">
+        <v>316</v>
+      </c>
+      <c r="I14">
+        <v>0.96</v>
+      </c>
+      <c r="J14">
+        <v>0.3</v>
+      </c>
+      <c r="K14">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15">
+        <v>-420</v>
+      </c>
+      <c r="C15">
+        <v>-395</v>
+      </c>
+      <c r="D15">
+        <v>-385</v>
+      </c>
+      <c r="E15" s="2">
+        <v>-370</v>
+      </c>
+      <c r="F15">
+        <v>-375</v>
+      </c>
+      <c r="G15">
+        <v>-322</v>
+      </c>
+      <c r="H15">
+        <v>-316</v>
+      </c>
+      <c r="I15">
+        <v>-3.51</v>
+      </c>
+      <c r="J15">
+        <v>-12.98</v>
+      </c>
+      <c r="K15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16">
+        <v>360</v>
+      </c>
+      <c r="C16">
+        <v>370</v>
+      </c>
+      <c r="D16">
+        <v>350</v>
+      </c>
+      <c r="E16" s="2">
+        <v>385</v>
+      </c>
+      <c r="F16">
+        <v>350</v>
+      </c>
+      <c r="G16">
+        <v>384</v>
+      </c>
+      <c r="H16">
+        <v>368</v>
+      </c>
+      <c r="I16">
+        <v>3.63</v>
+      </c>
+      <c r="J16">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="K16">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" t="s">
+        <v>26</v>
+      </c>
+      <c r="B17">
+        <v>-480</v>
+      </c>
+      <c r="C17">
+        <v>-485</v>
+      </c>
+      <c r="D17">
+        <v>-455</v>
+      </c>
+      <c r="E17">
+        <v>-500</v>
+      </c>
+      <c r="F17" s="2">
+        <v>-450</v>
+      </c>
+      <c r="G17">
+        <v>-384</v>
+      </c>
+      <c r="H17">
+        <v>-368</v>
+      </c>
+      <c r="I17">
+        <v>-3.89</v>
+      </c>
+      <c r="J17">
+        <v>-17.52</v>
+      </c>
+      <c r="K17">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>175</v>
+      </c>
+      <c r="C18">
+        <v>170</v>
+      </c>
+      <c r="D18">
+        <v>175</v>
+      </c>
+      <c r="E18" s="2">
+        <v>176</v>
+      </c>
+      <c r="F18">
+        <v>175</v>
+      </c>
+      <c r="G18">
         <v>185</v>
       </c>
-      <c r="C4">
-        <v>180</v>
-      </c>
-      <c r="D4">
-        <v>175</v>
-      </c>
-      <c r="E4">
-        <v>180</v>
-      </c>
-      <c r="F4" s="2">
-        <v>185</v>
-      </c>
-      <c r="G4">
-        <v>188</v>
-      </c>
-      <c r="H4">
-        <v>-1.04</v>
-      </c>
-      <c r="I4">
-        <v>-0.5600000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5">
-        <v>-225</v>
-      </c>
-      <c r="C5">
-        <v>-218</v>
-      </c>
-      <c r="D5" s="2">
+      <c r="H18">
+        <v>186</v>
+      </c>
+      <c r="I18">
+        <v>-3.5</v>
+      </c>
+      <c r="J18">
+        <v>-1.99</v>
+      </c>
+      <c r="K18">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>-210</v>
+      </c>
+      <c r="C19" s="2">
+        <v>-205</v>
+      </c>
+      <c r="D19">
         <v>-215</v>
       </c>
-      <c r="E5" s="2">
-        <v>-215</v>
-      </c>
-      <c r="F5">
-        <v>-225</v>
-      </c>
-      <c r="G5">
-        <v>-212</v>
-      </c>
-      <c r="H5">
-        <v>-0.45</v>
-      </c>
-      <c r="I5">
-        <v>-0.96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6">
-        <v>600</v>
-      </c>
-      <c r="C6">
-        <v>600</v>
-      </c>
-      <c r="D6">
-        <v>600</v>
-      </c>
-      <c r="E6" s="2">
-        <v>610</v>
-      </c>
-      <c r="F6">
-        <v>550</v>
-      </c>
-      <c r="G6">
-        <v>548</v>
-      </c>
-      <c r="H6">
-        <v>9.57</v>
-      </c>
-      <c r="I6">
-        <v>1.57</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7">
-        <v>-900</v>
-      </c>
-      <c r="C7">
-        <v>-900</v>
-      </c>
-      <c r="D7">
-        <v>-910</v>
-      </c>
-      <c r="E7">
-        <v>-900</v>
-      </c>
-      <c r="F7" s="2">
-        <v>-800</v>
-      </c>
-      <c r="G7">
-        <v>-718</v>
-      </c>
-      <c r="H7">
-        <v>-1.25</v>
-      </c>
-      <c r="I7">
-        <v>-10.02</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>15</v>
-      </c>
-      <c r="B8" s="2">
-        <v>-140</v>
-      </c>
-      <c r="C8">
-        <v>-148</v>
-      </c>
-      <c r="D8">
-        <v>-148</v>
-      </c>
-      <c r="E8">
-        <v>-142</v>
-      </c>
-      <c r="F8">
-        <v>-145</v>
-      </c>
-      <c r="G8">
-        <v>-141</v>
-      </c>
-      <c r="H8">
-        <v>0.3</v>
-      </c>
-      <c r="I8">
-        <v>0.41</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9">
-        <v>118</v>
-      </c>
-      <c r="C9">
-        <v>124</v>
-      </c>
-      <c r="D9" s="2">
-        <v>125</v>
-      </c>
-      <c r="E9">
-        <v>120</v>
-      </c>
-      <c r="F9">
-        <v>120</v>
-      </c>
-      <c r="G9">
-        <v>127</v>
-      </c>
-      <c r="H9">
-        <v>-0.88</v>
-      </c>
-      <c r="I9">
-        <v>-0.7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2">
-        <v>152</v>
-      </c>
-      <c r="C10">
-        <v>150</v>
-      </c>
-      <c r="D10">
-        <v>148</v>
-      </c>
-      <c r="E10" s="2">
-        <v>152</v>
-      </c>
-      <c r="F10">
-        <v>150</v>
-      </c>
-      <c r="G10">
-        <v>156</v>
-      </c>
-      <c r="H10">
-        <v>-1.56</v>
-      </c>
-      <c r="I10">
-        <v>-1.03</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11">
-        <v>-180</v>
-      </c>
-      <c r="C11">
-        <v>-180</v>
-      </c>
-      <c r="D11" s="2">
-        <v>-177</v>
-      </c>
-      <c r="E11">
-        <v>-180</v>
-      </c>
-      <c r="F11">
-        <v>-180</v>
-      </c>
-      <c r="G11">
-        <v>-175</v>
-      </c>
-      <c r="H11">
-        <v>-0.41</v>
-      </c>
-      <c r="I11">
-        <v>-0.73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2">
-        <v>328</v>
-      </c>
-      <c r="C12">
-        <v>320</v>
-      </c>
-      <c r="D12">
-        <v>245</v>
-      </c>
-      <c r="E12">
-        <v>295</v>
-      </c>
-      <c r="F12">
-        <v>300</v>
-      </c>
-      <c r="G12">
-        <v>268</v>
-      </c>
-      <c r="H12">
-        <v>16.3</v>
-      </c>
-      <c r="I12">
-        <v>4.97</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13">
-        <v>-430</v>
-      </c>
-      <c r="C13">
-        <v>-410</v>
-      </c>
-      <c r="D13" s="2">
-        <v>-305</v>
-      </c>
-      <c r="E13">
-        <v>-370</v>
-      </c>
-      <c r="F13">
-        <v>-375</v>
-      </c>
-      <c r="G13">
-        <v>-313</v>
-      </c>
-      <c r="H13">
-        <v>0.64</v>
-      </c>
-      <c r="I13">
-        <v>1.94</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14">
-        <v>360</v>
-      </c>
-      <c r="C14">
-        <v>370</v>
-      </c>
-      <c r="D14">
-        <v>350</v>
-      </c>
-      <c r="E14" s="2">
-        <v>385</v>
-      </c>
-      <c r="F14">
-        <v>350</v>
-      </c>
-      <c r="G14">
-        <v>377</v>
-      </c>
-      <c r="H14">
-        <v>1.68</v>
-      </c>
-      <c r="I14">
-        <v>0.44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
+      <c r="E19">
+        <v>-210</v>
+      </c>
+      <c r="F19">
+        <v>-210</v>
+      </c>
+      <c r="G19">
+        <v>-185</v>
+      </c>
+      <c r="H19">
+        <v>-186</v>
+      </c>
+      <c r="I19">
+        <v>-3.24</v>
+      </c>
+      <c r="J19">
+        <v>-6.64</v>
+      </c>
+      <c r="K19">
         <v>22</v>
-      </c>
-      <c r="B15">
-        <v>-480</v>
-      </c>
-      <c r="C15">
-        <v>-485</v>
-      </c>
-      <c r="D15">
-        <v>-455</v>
-      </c>
-      <c r="E15">
-        <v>-500</v>
-      </c>
-      <c r="F15" s="2">
-        <v>-450</v>
-      </c>
-      <c r="G15">
-        <v>-461</v>
-      </c>
-      <c r="H15">
-        <v>0.44</v>
-      </c>
-      <c r="I15">
-        <v>1.96</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16">
-        <v>175</v>
-      </c>
-      <c r="C16">
-        <v>170</v>
-      </c>
-      <c r="D16">
-        <v>175</v>
-      </c>
-      <c r="E16" s="2">
-        <v>176</v>
-      </c>
-      <c r="F16">
-        <v>175</v>
-      </c>
-      <c r="G16">
-        <v>176</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
-      <c r="A17" t="s">
-        <v>24</v>
-      </c>
-      <c r="B17">
-        <v>-210</v>
-      </c>
-      <c r="C17" s="2">
-        <v>-205</v>
-      </c>
-      <c r="D17">
-        <v>-215</v>
-      </c>
-      <c r="E17">
-        <v>-210</v>
-      </c>
-      <c r="F17">
-        <v>-210</v>
-      </c>
-      <c r="G17">
-        <v>-198</v>
-      </c>
-      <c r="H17">
-        <v>-1.15</v>
-      </c>
-      <c r="I17">
-        <v>-2.35</v>
       </c>
     </row>
   </sheetData>
@@ -982,37 +1166,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A11">
-    <cfRule type="cellIs" dxfId="1" priority="47" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="57" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A13">
-    <cfRule type="cellIs" dxfId="1" priority="56" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="68" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A15">
-    <cfRule type="cellIs" dxfId="1" priority="65" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="79" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A17">
+    <cfRule type="cellIs" dxfId="1" priority="90" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A3">
-    <cfRule type="cellIs" dxfId="1" priority="11" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="13" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5">
-    <cfRule type="cellIs" dxfId="1" priority="20" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="24" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A7">
-    <cfRule type="cellIs" dxfId="1" priority="29" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="35" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A9">
-    <cfRule type="cellIs" dxfId="1" priority="38" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="46" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1022,37 +1211,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11">
-    <cfRule type="cellIs" dxfId="1" priority="48" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="58" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B13">
-    <cfRule type="cellIs" dxfId="1" priority="57" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="69" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B15">
-    <cfRule type="cellIs" dxfId="1" priority="66" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="80" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B17">
+    <cfRule type="cellIs" dxfId="1" priority="91" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="14" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5">
-    <cfRule type="cellIs" dxfId="1" priority="21" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="25" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7">
-    <cfRule type="cellIs" dxfId="1" priority="30" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="36" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B9">
-    <cfRule type="cellIs" dxfId="1" priority="39" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="47" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1062,37 +1256,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11">
-    <cfRule type="cellIs" dxfId="1" priority="49" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="59" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C13">
-    <cfRule type="cellIs" dxfId="1" priority="58" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="70" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C15">
-    <cfRule type="cellIs" dxfId="1" priority="67" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="81" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C17">
+    <cfRule type="cellIs" dxfId="1" priority="92" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3">
-    <cfRule type="cellIs" dxfId="1" priority="13" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="15" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C5">
-    <cfRule type="cellIs" dxfId="1" priority="22" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="26" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C7">
-    <cfRule type="cellIs" dxfId="1" priority="31" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="37" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C9">
-    <cfRule type="cellIs" dxfId="1" priority="40" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="48" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1102,37 +1301,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="cellIs" dxfId="1" priority="50" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="60" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D13">
-    <cfRule type="cellIs" dxfId="1" priority="59" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="71" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D15">
-    <cfRule type="cellIs" dxfId="1" priority="68" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="82" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17">
+    <cfRule type="cellIs" dxfId="1" priority="93" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D3">
-    <cfRule type="cellIs" dxfId="1" priority="14" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="16" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5">
-    <cfRule type="cellIs" dxfId="1" priority="23" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="27" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D7">
-    <cfRule type="cellIs" dxfId="1" priority="32" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="38" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D9">
-    <cfRule type="cellIs" dxfId="1" priority="41" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="49" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1142,37 +1346,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11">
-    <cfRule type="cellIs" dxfId="1" priority="51" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="61" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E13">
-    <cfRule type="cellIs" dxfId="1" priority="60" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="72" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E15">
-    <cfRule type="cellIs" dxfId="1" priority="69" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="83" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E17">
+    <cfRule type="cellIs" dxfId="1" priority="94" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E3">
-    <cfRule type="cellIs" dxfId="1" priority="15" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="17" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E5">
-    <cfRule type="cellIs" dxfId="1" priority="24" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="28" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E7">
-    <cfRule type="cellIs" dxfId="1" priority="33" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="39" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E9">
-    <cfRule type="cellIs" dxfId="1" priority="42" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="50" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1182,37 +1391,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F11">
-    <cfRule type="cellIs" dxfId="1" priority="52" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="62" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F13">
-    <cfRule type="cellIs" dxfId="1" priority="61" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="73" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F15">
-    <cfRule type="cellIs" dxfId="1" priority="70" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="84" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F17">
+    <cfRule type="cellIs" dxfId="1" priority="95" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F3">
-    <cfRule type="cellIs" dxfId="1" priority="16" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="18" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
-    <cfRule type="cellIs" dxfId="1" priority="25" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="29" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F7">
-    <cfRule type="cellIs" dxfId="1" priority="34" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="40" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F9">
-    <cfRule type="cellIs" dxfId="1" priority="43" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="51" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1222,37 +1436,42 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="cellIs" dxfId="1" priority="53" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="63" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="cellIs" dxfId="1" priority="62" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="74" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="cellIs" dxfId="1" priority="71" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="85" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G17">
+    <cfRule type="cellIs" dxfId="1" priority="96" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="cellIs" dxfId="1" priority="17" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="19" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="cellIs" dxfId="1" priority="26" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="30" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="cellIs" dxfId="1" priority="35" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="41" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="cellIs" dxfId="1" priority="44" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="52" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1262,82 +1481,182 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="cellIs" dxfId="1" priority="54" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="64" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="cellIs" dxfId="1" priority="63" operator="notEqual">
+    <cfRule type="cellIs" dxfId="1" priority="75" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="cellIs" dxfId="1" priority="72" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:I17">
+    <cfRule type="cellIs" dxfId="1" priority="86" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H17">
+    <cfRule type="cellIs" dxfId="1" priority="97" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H3">
+    <cfRule type="cellIs" dxfId="1" priority="20" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="cellIs" dxfId="1" priority="31" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="cellIs" dxfId="1" priority="42" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H9">
+    <cfRule type="cellIs" dxfId="1" priority="53" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I1">
+    <cfRule type="cellIs" dxfId="1" priority="10" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I11">
+    <cfRule type="cellIs" dxfId="1" priority="65" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I13">
+    <cfRule type="cellIs" dxfId="1" priority="76" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I15">
+    <cfRule type="cellIs" dxfId="1" priority="87" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I17">
+    <cfRule type="cellIs" dxfId="1" priority="98" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I2:J19">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
       <formula>0.0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H3">
-    <cfRule type="cellIs" dxfId="1" priority="18" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="cellIs" dxfId="1" priority="27" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="cellIs" dxfId="1" priority="36" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H9">
+  <conditionalFormatting sqref="I3">
+    <cfRule type="cellIs" dxfId="1" priority="21" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5">
+    <cfRule type="cellIs" dxfId="1" priority="32" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="cellIs" dxfId="1" priority="43" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I9">
+    <cfRule type="cellIs" dxfId="1" priority="54" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J1">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J11">
+    <cfRule type="cellIs" dxfId="1" priority="66" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J13">
+    <cfRule type="cellIs" dxfId="1" priority="77" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J15">
+    <cfRule type="cellIs" dxfId="1" priority="88" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J17">
+    <cfRule type="cellIs" dxfId="1" priority="99" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J3">
+    <cfRule type="cellIs" dxfId="1" priority="22" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J5">
+    <cfRule type="cellIs" dxfId="1" priority="33" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7">
+    <cfRule type="cellIs" dxfId="1" priority="44" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J9">
+    <cfRule type="cellIs" dxfId="1" priority="55" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K1">
+    <cfRule type="cellIs" dxfId="1" priority="12" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K11">
+    <cfRule type="cellIs" dxfId="1" priority="67" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="cellIs" dxfId="1" priority="78" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K15">
+    <cfRule type="cellIs" dxfId="1" priority="89" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K17">
+    <cfRule type="cellIs" dxfId="1" priority="100" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K3">
+    <cfRule type="cellIs" dxfId="1" priority="23" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K5">
+    <cfRule type="cellIs" dxfId="1" priority="34" operator="notEqual">
+      <formula>3.14159</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="K7">
     <cfRule type="cellIs" dxfId="1" priority="45" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I1">
-    <cfRule type="cellIs" dxfId="1" priority="10" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I11">
-    <cfRule type="cellIs" dxfId="1" priority="55" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I13">
-    <cfRule type="cellIs" dxfId="1" priority="64" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I15">
-    <cfRule type="cellIs" dxfId="1" priority="73" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I3">
-    <cfRule type="cellIs" dxfId="1" priority="19" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="1" priority="28" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="cellIs" dxfId="1" priority="37" operator="notEqual">
-      <formula>3.14159</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I9">
-    <cfRule type="cellIs" dxfId="1" priority="46" operator="notEqual">
+  <conditionalFormatting sqref="K9">
+    <cfRule type="cellIs" dxfId="1" priority="56" operator="notEqual">
       <formula>3.14159</formula>
     </cfRule>
   </conditionalFormatting>
